--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17374" windowHeight="9977"/>
+    <workbookView windowWidth="10764" windowHeight="8075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6106,8 +6106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -6122,12 +6122,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6141,22 +6142,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6165,6 +6188,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6187,10 +6217,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6225,41 +6255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6279,7 +6279,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6291,13 +6345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6309,13 +6357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6327,37 +6381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6369,25 +6417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6399,43 +6435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6447,19 +6459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6488,6 +6488,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6499,6 +6538,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6520,206 +6570,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7105,11 +7108,11 @@
   <sheetPr/>
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -7167,7 +7170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" ht="14" customHeight="1" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -7189,7 +7192,7 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" t="s">
@@ -8399,7 +8402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" ht="18" customHeight="1" spans="1:18">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" ht="15" customHeight="1" spans="1:18">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -8477,7 +8480,7 @@
       <c r="G25" t="s">
         <v>195</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I25" t="s">
@@ -11143,7 +11146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" ht="409.5" spans="1:18">
       <c r="A73" t="s">
         <v>447</v>
       </c>
@@ -11165,7 +11168,7 @@
       <c r="G73" t="s">
         <v>447</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>451</v>
       </c>
       <c r="I73" t="s">
@@ -15011,7 +15014,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:R141" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:R24 A1:R1 A2:G2 I2:R2 A25:G25 I25:R25 A26:R72 A73:G73 I73:R73 A74:R141" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>